--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101505.4070326683</v>
+        <v>18406515.05394461</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101505.4070326683</v>
+        <v>18406515.05394461</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>204179.1972026122</v>
+        <v>24780415.11466847</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204179.1972026122</v>
+        <v>24780415.11466847</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1605354128.327207</v>
+        <v>33197162.73479722</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17289.44982506897</v>
+        <v>833547.5193550261</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33529.76208956497</v>
+        <v>1528165.405269668</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49943.69811736599</v>
+        <v>2222783.291184311</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67214.07543296261</v>
+        <v>2652690.401222142</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83191.44973205868</v>
+        <v>3391412.034385928</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98844.58045973293</v>
+        <v>4086017.114199745</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>114497.7111874072</v>
+        <v>4780622.194013562</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130150.8419150815</v>
+        <v>5475227.27382738</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147417.264814592</v>
+        <v>5903251.100875924</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>163429.5720641587</v>
+        <v>6634240.287919713</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>179113.9741083453</v>
+        <v>7324151.205314157</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>194792.7929422524</v>
+        <v>8013727.130091821</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210471.6117761595</v>
+        <v>8703303.054869486</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>226409.2233174048</v>
+        <v>9348333.233590374</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246390.8335343703</v>
+        <v>9564826.867047662</v>
       </c>
     </row>
   </sheetData>
